--- a/data/evaluation/evaluation_South_Spring_Cabbage.xlsx
+++ b/data/evaluation/evaluation_South_Spring_Cabbage.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5339.43205601809</v>
+        <v>5263.909657865666</v>
       </c>
       <c r="C4" t="n">
-        <v>44128950.02850139</v>
+        <v>43132476.61874672</v>
       </c>
       <c r="D4" t="n">
-        <v>6642.962443706979</v>
+        <v>6567.53200363323</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.5269312276104561</v>
+        <v>-0.4924516769786109</v>
       </c>
     </row>
     <row r="5">
